--- a/Descargas/R15_6º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Septiembre.xlsx
+++ b/Descargas/R15_6º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Septiembre.xlsx
@@ -381,7 +381,7 @@
         </is>
       </c>
       <c r="B18" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
